--- a/Files/Madden24/IE/Season5/Player_Potential.xlsx
+++ b/Files/Madden24/IE/Season5/Player_Potential.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden24/IE/Season5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_515DE0E0F23B0A034F2D4C0375AA03B5797CE1A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B10B8FD-08CC-4F97-AF8A-AFBC69FEC159}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_515DE0E0F23B0A034F2D4C0375AA03B5797CE1A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C37E04B-9742-47AF-982C-3274027EDDD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5353,7 +5353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -33320,6 +33322,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T451" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>